--- a/我的创作/股票/技术投资/SEAP交易系统/应急情况表.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/应急情况表.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
